--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail11 Features.xlsx
@@ -5706,7 +5706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5717,29 +5717,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5760,115 +5758,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5885,72 +5873,66 @@
         <v>2.383384240137165e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.2467442927895521</v>
+        <v>8.205970231350739e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.072955442339949</v>
+        <v>3.190626936473391e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.205970231350739e-07</v>
+        <v>-0.02571562317584046</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.190626936473391e-06</v>
+        <v>0.2245733951326223</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.02571562317584046</v>
+        <v>0.05108932060917899</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2245733951326223</v>
+        <v>1.888440543258607</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05108932060917899</v>
+        <v>1.958848638378914</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.87129714123316</v>
+        <v>3.720904252660983</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.958848638378914</v>
+        <v>1.350058591480941e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.720904252660983</v>
+        <v>156881420.3784994</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.350058591480941e-15</v>
+        <v>7.645430055082399e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>156881420.3784994</v>
+        <v>33.22734512160913</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.645430055082399e-07</v>
+        <v>0.0001646630720892075</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>33.22734512160913</v>
+        <v>10.19770009350285</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001646630720892075</v>
+        <v>1.189905756694189</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.19770009350285</v>
+        <v>0.01712382121390347</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.189905756694189</v>
+        <v>2.806967377765392</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01712382121390347</v>
+        <v>0.9621774991886275</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.806967377765392</v>
+        <v>1.495084530834101</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9621774991886275</v>
+        <v>20</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.495084530834101</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2206131156417458</v>
       </c>
     </row>
@@ -5965,72 +5947,66 @@
         <v>2.424172411980676e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2605744597705128</v>
+        <v>8.369507691760649e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.107174894057865</v>
+        <v>3.184578774395627e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.369507691760649e-07</v>
+        <v>-0.02523605991934218</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.184578774395627e-06</v>
+        <v>0.2206227742529746</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02523605991934218</v>
+        <v>0.04931010792527934</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2206227742529746</v>
+        <v>1.888939362755939</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04931010792527934</v>
+        <v>1.905545290756402</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.873183252290515</v>
+        <v>3.757227735701809</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.905545290756402</v>
+        <v>1.324081041446427e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.757227735701809</v>
+        <v>151678043.5032065</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.324081041446427e-15</v>
+        <v>7.849962732503743e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>151678043.5032065</v>
+        <v>30.4621114964572</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.849962732503743e-07</v>
+        <v>0.0001750440822278777</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>30.4621114964572</v>
+        <v>11.91834553250281</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001750440822278777</v>
+        <v>1.068770464045578</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.91834553250281</v>
+        <v>0.02486447978709299</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.068770464045578</v>
+        <v>2.553584722705465</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02486447978709299</v>
+        <v>0.9612538319104107</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.553584722705465</v>
+        <v>1.501472579642323</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9612538319104107</v>
+        <v>20</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.501472579642323</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2262690615316686</v>
       </c>
     </row>
@@ -6045,72 +6021,66 @@
         <v>2.470697588372925e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2671660489210792</v>
+        <v>8.691844159049844e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.134741611719303</v>
+        <v>3.178105475981882e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.691844159049844e-07</v>
+        <v>-0.02824028251336601</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.178105475981882e-06</v>
+        <v>0.2163056858591048</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02824028251336601</v>
+        <v>0.04758230720451297</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2163056858591048</v>
+        <v>1.889201025108017</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04758230720451297</v>
+        <v>1.852122491836759</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.874023565369062</v>
+        <v>3.857692205154114</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.852122491836759</v>
+        <v>1.256013939999525e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.857692205154114</v>
+        <v>158592491.9880722</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.256013939999525e-15</v>
+        <v>7.507265725234699e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>158592491.9880722</v>
+        <v>31.59073322781591</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.507265725234699e-07</v>
+        <v>0.0001888032695994529</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>31.59073322781591</v>
+        <v>12.24888395032674</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001888032695994529</v>
+        <v>1.078158414027955</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.24888395032674</v>
+        <v>0.028327128390665</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.078158414027955</v>
+        <v>2.585379718842603</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.028327128390665</v>
+        <v>0.9628487293064119</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.585379718842603</v>
+        <v>1.523866538869573</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9628487293064119</v>
+        <v>20</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.523866538869573</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2291279621312377</v>
       </c>
     </row>
@@ -6125,72 +6095,66 @@
         <v>2.520852536969577e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2777289997448647</v>
+        <v>9.004754066573768e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.145926335640223</v>
+        <v>3.170324305822745e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.004754066573768e-07</v>
+        <v>-0.03455820710215377</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.170324305822745e-06</v>
+        <v>0.2081608849738545</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.03455820710215377</v>
+        <v>0.04451496735834388</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2081608849738545</v>
+        <v>1.895435156307604</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04451496735834388</v>
+        <v>1.819752061808702</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.883141471419477</v>
+        <v>4.084103001160122</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.819752061808702</v>
+        <v>1.12061448946543e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.084103001160122</v>
+        <v>180983162.4759567</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.12061448946543e-15</v>
+        <v>6.614517150237107e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>180983162.4759567</v>
+        <v>36.70562125589937</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.614517150237107e-07</v>
+        <v>0.0002137926427248468</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>36.70562125589937</v>
+        <v>10.93201690856236</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002137926427248468</v>
+        <v>1.309652796428363</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.93201690856236</v>
+        <v>0.02555014359017829</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.309652796428363</v>
+        <v>2.654150269784067</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02555014359017829</v>
+        <v>0.9630612624602346</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.654150269784067</v>
+        <v>1.495980372399053</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9630612624602346</v>
+        <v>20</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.495980372399053</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2444605661753253</v>
       </c>
     </row>
@@ -6205,72 +6169,66 @@
         <v>2.567536478232372e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2987733413570358</v>
+        <v>9.308206003860385e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.122412653864583</v>
+        <v>3.160478406557406e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.308206003860385e-07</v>
+        <v>-0.04285403995275321</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.160478406557406e-06</v>
+        <v>0.1959813431563288</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04285403995275321</v>
+        <v>0.04023295596689343</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1959813431563288</v>
+        <v>1.884441404095578</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04023295596689343</v>
+        <v>1.751026312699515</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.87249310348713</v>
+        <v>4.60764974888754</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.751026312699515</v>
+        <v>8.804216004167304e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.60764974888754</v>
+        <v>227992759.7529485</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.804216004167304e-16</v>
+        <v>5.235283136226152e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>227992759.7529485</v>
+        <v>45.76492976394323</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.235283136226152e-07</v>
+        <v>0.000225712206344791</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>45.76492976394323</v>
+        <v>9.391928709676915</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000225712206344791</v>
+        <v>1.668235422046724</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.391928709676915</v>
+        <v>0.01990969562837041</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.668235422046724</v>
+        <v>2.785465617683088</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01990969562837041</v>
+        <v>0.964262425214217</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.785465617683088</v>
+        <v>1.501795534822565</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.964262425214217</v>
+        <v>20</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.501795534822565</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.311834520574806</v>
       </c>
     </row>
@@ -6285,72 +6243,66 @@
         <v>2.602017563158565e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.3229594062718827</v>
+        <v>9.601304832612653e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.058087697994774</v>
+        <v>3.148436062240747e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.601304832612653e-07</v>
+        <v>-0.04966169650283482</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.148436062240747e-06</v>
+        <v>0.1872403355375892</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04966169650283482</v>
+        <v>0.03752158537464031</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1872403355375892</v>
+        <v>1.889741168030462</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03752158537464031</v>
+        <v>1.732885925280602</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.874637325531884</v>
+        <v>6.036046223472971</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.732885925280602</v>
+        <v>4.771984727389992e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.036046223472971</v>
+        <v>423194167.5559348</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.771984727389992e-16</v>
+        <v>2.82410416154484e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>423194167.5559348</v>
+        <v>85.46305088572582</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.82410416154484e-07</v>
+        <v>0.0001770349275840849</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>85.46305088572582</v>
+        <v>9.301647514653929</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001770349275840849</v>
+        <v>1.391596294205557</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.301647514653929</v>
+        <v>0.01531717638533082</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.391596294205557</v>
+        <v>2.965509461599587</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01531717638533082</v>
+        <v>0.9638657246392128</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.965509461599587</v>
+        <v>1.525888447707846</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9638657246392128</v>
+        <v>20</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.525888447707846</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.501501315941175</v>
       </c>
     </row>
@@ -6365,72 +6317,66 @@
         <v>2.626233465399767e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.3397846714745051</v>
+        <v>9.883821175497315e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.9731694684217449</v>
+        <v>3.134948040703175e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9.883821175497315e-07</v>
+        <v>-0.05295627640252547</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.134948040703175e-06</v>
+        <v>0.184236107126573</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05295627640252547</v>
+        <v>0.03674689358726183</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.184236107126573</v>
+        <v>1.915590808501731</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03674689358726183</v>
+        <v>2.169559890302</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.922824510319521</v>
+        <v>4.058997331660347</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.169559890302</v>
+        <v>2.962233121286307e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.058997331660347</v>
+        <v>688222120.5422505</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.962233121286307e-16</v>
+        <v>1.75047857859206e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>688222120.5422505</v>
+        <v>140.3060791321616</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.75047857859206e-07</v>
+        <v>0.0001824949842153345</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>140.3060791321616</v>
+        <v>11.93109745913459</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001824949842153345</v>
+        <v>1.059055139197296</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.93109745913459</v>
+        <v>0.02597835929833745</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.059055139197296</v>
+        <v>2.657902197905178</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02597835929833745</v>
+        <v>0.9628230312687287</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.657902197905178</v>
+        <v>1.294865063164576</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9628230312687287</v>
+        <v>20</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.294865063164576</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.7002397324597491</v>
       </c>
     </row>
@@ -6445,72 +6391,66 @@
         <v>2.648745375247821e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.3493728998385286</v>
+        <v>1.015728196754408e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.8810679308576006</v>
+        <v>3.120832149888458e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.015728196754408e-06</v>
+        <v>-0.05381331985718296</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.120832149888458e-06</v>
+        <v>0.1827142565978347</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05381331985718296</v>
+        <v>0.03627980027605333</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1827142565978347</v>
+        <v>1.923843751447959</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.03627980027605333</v>
+        <v>2.418887767886682</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.940528627506932</v>
+        <v>4.112183794414636</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.418887767886682</v>
+        <v>2.886102364967218e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.112183794414636</v>
+        <v>710276681.947435</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.886102364967218e-16</v>
+        <v>1.696615153730833e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>710276681.947435</v>
+        <v>145.6018339159907</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.696615153730833e-07</v>
+        <v>0.0002040090949457386</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>145.6018339159907</v>
+        <v>12.88783199693511</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002040090949457386</v>
+        <v>1.016740028673066</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>12.88783199693511</v>
+        <v>0.03388513820661967</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.016740028673066</v>
+        <v>2.630477606505186</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.03388513820661967</v>
+        <v>0.9618719322226209</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.630477606505186</v>
+        <v>1.223629948580671</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9618719322226209</v>
+        <v>19</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.223629948580671</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.8853791170306362</v>
       </c>
     </row>
@@ -6525,72 +6465,66 @@
         <v>2.67523284117059e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.35489982958502</v>
+        <v>1.04220823813077e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.7868057557223698</v>
+        <v>3.106536619318196e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.04220823813077e-06</v>
+        <v>-0.05347557067845583</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.106536619318196e-06</v>
+        <v>0.180941085488749</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05347557067845583</v>
+        <v>0.03559831217040232</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.180941085488749</v>
+        <v>1.925884466648194</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.03559831217040232</v>
+        <v>2.184737450337668</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.947538056533893</v>
+        <v>4.252417328025363</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.184737450337668</v>
+        <v>2.698888898090001e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.252417328025363</v>
+        <v>744001266.6261632</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.698888898090001e-16</v>
+        <v>1.621310417712184e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>744001266.6261632</v>
+        <v>149.3937251800613</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.621310417712184e-07</v>
+        <v>0.0002391248201826595</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>149.3937251800613</v>
+        <v>11.77311832130038</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0002391248201826595</v>
+        <v>1.303519686464951</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.77311832130038</v>
+        <v>0.03314421015231094</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.303519686464951</v>
+        <v>2.865755249402922</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.03314421015231094</v>
+        <v>0.9610451157183511</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.865755249402922</v>
+        <v>1.184471233506901</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9610451157183511</v>
+        <v>19</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.184471233506901</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>1.259033680295466</v>
       </c>
     </row>
@@ -6605,72 +6539,66 @@
         <v>2.708225041301583e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3582896073643657</v>
+        <v>1.067865825173329e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.6955380601601622</v>
+        <v>3.092282161847833e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.067865825173329e-06</v>
+        <v>-0.05236710067278753</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.092282161847833e-06</v>
+        <v>0.1785905246751843</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05236710067278753</v>
+        <v>0.0346354787579943</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1785905246751843</v>
+        <v>1.934175672648381</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0346354787579943</v>
+        <v>2.044194125148762</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.960688872913643</v>
+        <v>5.455935260323572</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.044194125148762</v>
+        <v>1.48402012225974e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.455935260323572</v>
+        <v>1310967241.174812</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.48402012225974e-16</v>
+        <v>9.195479782616731e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1310967241.174812</v>
+        <v>255.0489082253342</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>9.195479782616731e-08</v>
+        <v>0.0002477492426339205</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>255.0489082253342</v>
+        <v>10.65859015482335</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0002477492426339205</v>
+        <v>1.674309426177412</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.65859015482335</v>
+        <v>0.02814568750693966</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.674309426177412</v>
+        <v>3.608888427435723</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02814568750693966</v>
+        <v>0.9596285555928551</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.608888427435723</v>
+        <v>1.177821210449498</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9596285555928551</v>
+        <v>19</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.177821210449498</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>2.932013710159389</v>
       </c>
     </row>
@@ -6685,72 +6613,66 @@
         <v>2.748918850095258e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3603669829520876</v>
+        <v>1.092701387760722e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.6135271141352026</v>
+        <v>3.07821336233005e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.092701387760722e-06</v>
+        <v>-0.0507389631532381</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.07821336233005e-06</v>
+        <v>0.1756318340186143</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.0507389631532381</v>
+        <v>0.03341939787997963</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1756318340186143</v>
+        <v>1.94012101493799</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03341939787997963</v>
+        <v>2.262733357407159</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.969129644310649</v>
+        <v>7.391086751150459</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.262733357407159</v>
+        <v>3.569156245221157e-17</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>7.391086751150459</v>
+        <v>5245397105.063188</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.569156245221157e-17</v>
+        <v>2.312590366635109e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>5245397105.063188</v>
+        <v>982.0244588963993</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.312590366635109e-08</v>
+        <v>9.945497505615286e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>982.0244588963993</v>
+        <v>9.907198268793865</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>9.945497505615286e-05</v>
+        <v>1.874303002238497</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.907198268793865</v>
+        <v>0.009761762150658555</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.874303002238497</v>
+        <v>6.274614933673058</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.009761762150658555</v>
+        <v>0.9575877457848266</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>6.274614933673058</v>
+        <v>1.035022489665108</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9575877457848266</v>
+        <v>19</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.035022489665108</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>10.0032988841235</v>
       </c>
     </row>
@@ -6765,72 +6687,66 @@
         <v>2.7973462174042e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.361182207673818</v>
+        <v>1.116701737423123e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.5462077805655321</v>
+        <v>3.064407210600116e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.116701737423123e-06</v>
+        <v>-0.04884758234087912</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.064407210600116e-06</v>
+        <v>0.1721985845210232</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.04884758234087912</v>
+        <v>0.03203685944380457</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1721985845210232</v>
+        <v>1.937333681317434</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.03203685944380457</v>
+        <v>2.814871389248041</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.971781669112232</v>
+        <v>9.587371082112659</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.814871389248041</v>
+        <v>7.678162550687703e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>9.587371082112659</v>
+        <v>23638804392.08634</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>7.678162550687703e-18</v>
+        <v>5.101673127778935e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>23638804392.08634</v>
+        <v>4290.504047362761</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.101673127778935e-09</v>
+        <v>9.333993363961682e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>4290.504047362761</v>
+        <v>7.737354008716315</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>9.333993363961682e-06</v>
+        <v>1.950554275640622</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.737354008716315</v>
+        <v>0.0005587948863451923</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.950554275640622</v>
+        <v>8.406374036010504</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0005587948863451923</v>
+        <v>0.9587253941871059</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.406374036010504</v>
+        <v>0.8554919813402685</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9587253941871059</v>
+        <v>19</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.8554919813402685</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>18.55131596472154</v>
       </c>
     </row>
@@ -6845,72 +6761,66 @@
         <v>2.852856364596044e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.3605470691812172</v>
+        <v>1.139868321761997e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.4968158783104872</v>
+        <v>3.050897249669843e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.139868321761997e-06</v>
+        <v>-0.04682129318372475</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.050897249669843e-06</v>
+        <v>0.168426195364158</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04682129318372475</v>
+        <v>0.03055810105211012</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.168426195364158</v>
+        <v>1.936684474602723</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03055810105211012</v>
+        <v>3.241393770716479</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.968454154308261</v>
+        <v>10.6395215563731</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.241393770716479</v>
+        <v>3.771702509477961e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>10.6395215563731</v>
+        <v>47003953904.73232</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.771702509477961e-18</v>
+        <v>2.574016939385844e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>47003953904.73232</v>
+        <v>8333.092719926915</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.574016939385844e-09</v>
+        <v>4.738033685940146e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>8333.092719926915</v>
+        <v>8.033570685285797</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>4.738033685940146e-06</v>
+        <v>1.470077981298394</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.033570685285797</v>
+        <v>0.0003057844402249746</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.470077981298394</v>
+        <v>8.603546188160188</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0003057844402249746</v>
+        <v>0.9607943424635336</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.603546188160188</v>
+        <v>0.7143704648895312</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9607943424635336</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.7143704648895312</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>20.35171400598082</v>
       </c>
     </row>
@@ -6925,72 +6835,66 @@
         <v>2.914583406366826e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.3583161430453058</v>
+        <v>1.162175144125186e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.4664209240074455</v>
+        <v>3.037701631869087e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.162175144125186e-06</v>
+        <v>-0.04473015336549153</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.037701631869087e-06</v>
+        <v>0.1644301664559551</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04473015336549153</v>
+        <v>0.02903664971346557</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1644301664559551</v>
+        <v>1.93998654768095</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02903664971346557</v>
+        <v>3.692471631240551</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.969225671882361</v>
+        <v>10.86142357239751</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.692471631240551</v>
+        <v>3.619162865539648e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>10.86142357239751</v>
+        <v>49415209918.49944</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.619162865539648e-18</v>
+        <v>2.450438614271967e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>49415209918.49944</v>
+        <v>8837.499788426781</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.450438614271967e-09</v>
+        <v>4.3947307970662e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>8837.499788426781</v>
+        <v>7.703660245577887</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>4.3947307970662e-06</v>
+        <v>1.661256973842671</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.703660245577887</v>
+        <v>0.0002608113690630871</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.661256973842671</v>
+        <v>8.675569458281615</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0002608113690630871</v>
+        <v>0.962837291100434</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.675569458281615</v>
+        <v>0.6674587261931858</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.962837291100434</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.6674587261931858</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>20.05323476032056</v>
       </c>
     </row>
@@ -7005,72 +6909,66 @@
         <v>2.981580073862555e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.3544833522179136</v>
+        <v>1.183567351798779e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.4543118258389267</v>
+        <v>3.024830416907878e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.183567351798779e-06</v>
+        <v>-0.04262712765127085</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.024830416907878e-06</v>
+        <v>0.160314707400563</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04262712765127085</v>
+        <v>0.02751658636449013</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.160314707400563</v>
+        <v>1.929380469450437</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02751658636449013</v>
+        <v>3.547604784668862</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.960498891333979</v>
+        <v>10.92642676628194</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.547604784668862</v>
+        <v>3.576228911405222e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>10.92642676628194</v>
+        <v>49681870799.36802</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3.576228911405222e-18</v>
+        <v>2.427326217094256e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>49681870799.36802</v>
+        <v>8827.163930523415</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.427326217094256e-09</v>
+        <v>4.852115978249805e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>8827.163930523415</v>
+        <v>7.253943033181321</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>4.852115978249805e-06</v>
+        <v>2.012563962037104</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.253943033181321</v>
+        <v>0.0002553168363324573</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>2.012563962037104</v>
+        <v>8.672253237445924</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0002553168363324573</v>
+        <v>0.9633337241777877</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.672253237445924</v>
+        <v>0.6820962370801108</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9633337241777877</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.6820962370801108</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>19.0985903224854</v>
       </c>
     </row>
@@ -7085,72 +6983,66 @@
         <v>3.052875297030315e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3492038808285369</v>
+        <v>1.204024027901138e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.458514228644828</v>
+        <v>3.012286957628025e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.204024027901138e-06</v>
+        <v>-0.04056127969242524</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.012286957628025e-06</v>
+        <v>0.156173602382238</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04056127969242524</v>
+        <v>0.02603425930791819</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.156173602382238</v>
+        <v>1.930971554314999</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.02603425930791819</v>
+        <v>3.676764779422923</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.958487295544883</v>
+        <v>10.45362006708224</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>3.676764779422923</v>
+        <v>3.907043124212503e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>10.45362006708224</v>
+        <v>46324326705.0237</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.907043124212503e-18</v>
+        <v>2.606996257613622e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>46324326705.0237</v>
+        <v>8384.292799052933</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.606996257613622e-09</v>
+        <v>4.58432929733497e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8384.292799052933</v>
+        <v>7.602397866110778</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>4.58432929733497e-06</v>
+        <v>1.458793257016838</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.602397866110778</v>
+        <v>0.0002649579742123831</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.458793257016838</v>
+        <v>8.643874435604188</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0002649579742123831</v>
+        <v>0.9630262067209574</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.643874435604188</v>
+        <v>0.6885974830464148</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9630262067209574</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.6885974830464148</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>19.03328682012161</v>
       </c>
     </row>
@@ -7165,72 +7057,66 @@
         <v>3.127593581095455e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.3426620759923325</v>
+        <v>1.224021943302296e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.4762652460346746</v>
+        <v>3.000064158868249e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.224021943302296e-06</v>
+        <v>-0.03859416014623326</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.000064158868249e-06</v>
+        <v>0.1520833017584771</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.03859416014623326</v>
+        <v>0.0246178056991525</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1520833017584771</v>
+        <v>1.930132585437382</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.0246178056991525</v>
+        <v>3.227711131102903</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.957636307170515</v>
+        <v>9.16527589170893</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.227711131102903</v>
+        <v>7.845251662307392e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>9.16527589170893</v>
+        <v>23123380101.62408</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>7.845251662307392e-18</v>
+        <v>5.24510060873344e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>23123380101.62408</v>
+        <v>4194.783160455373</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>5.24510060873344e-09</v>
+        <v>7.852634882064297e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>4194.783160455373</v>
+        <v>7.890918168360214</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>7.852634882064297e-06</v>
+        <v>1.788656515320285</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.890918168360214</v>
+        <v>0.0004889567930070781</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.788656515320285</v>
+        <v>8.545594024773122</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0004889567930070781</v>
+        <v>0.9628784394567016</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.545594024773122</v>
+        <v>0.8395124606498686</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9628784394567016</v>
+        <v>31</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.8395124606498686</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>18.2291023583242</v>
       </c>
     </row>
@@ -7245,72 +7131,66 @@
         <v>3.205100507027386e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3349011470867014</v>
+        <v>1.244011267507519e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.5045133520111187</v>
+        <v>2.988142052188436e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.244011267507519e-06</v>
+        <v>-0.03676024608654335</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.988142052188436e-06</v>
+        <v>0.1480884345505329</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.03676024608654335</v>
+        <v>0.02328057564533201</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1480884345505329</v>
+        <v>1.928774909200086</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.02328057564533201</v>
+        <v>3.323790493916546</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.956944443498308</v>
+        <v>7.266730862239433</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.323790493916546</v>
+        <v>1.248015024201779e-17</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>7.266730862239433</v>
+        <v>14632593688.35281</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.248015024201779e-17</v>
+        <v>8.274163094597797e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>14632593688.35281</v>
+        <v>2672.159888383125</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>8.274163094597797e-09</v>
+        <v>3.778935609634061e-05</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>2672.159888383125</v>
+        <v>9.628892086628845</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>3.778935609634061e-05</v>
+        <v>1.758819666054157</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.628892086628845</v>
+        <v>0.003503661418924329</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.758819666054157</v>
+        <v>7.442318333667643</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.003503661418924329</v>
+        <v>0.9602132141085181</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>7.442318333667643</v>
+        <v>0.822270157387533</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9602132141085181</v>
+        <v>84</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.822270157387533</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>13.3149700639097</v>
       </c>
     </row>
@@ -7325,72 +7205,66 @@
         <v>3.284894458981983e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3260013952599373</v>
+        <v>1.263936188551885e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.5404495990517444</v>
+        <v>2.976496615260192e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.263936188551885e-06</v>
+        <v>-0.03505953466248113</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.976496615260192e-06</v>
+        <v>0.1442144826113292</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.03505953466248113</v>
+        <v>0.02202616701063507</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1442144826113292</v>
+        <v>1.929259324388723</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.02202616701063507</v>
+        <v>3.438212711087191</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.957394552465437</v>
+        <v>6.736580136453178</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.438212711087191</v>
+        <v>1.4521751606398e-17</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>6.736580136453178</v>
+        <v>12162594084.99038</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.4521751606398e-17</v>
+        <v>9.952568389431485e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>12162594084.99038</v>
+        <v>2148.18376245144</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>9.952568389431485e-09</v>
+        <v>6.461539631810915e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>2148.18376245144</v>
+        <v>10.08522735865474</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>6.461539631810915e-05</v>
+        <v>1.278846560253908</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.08522735865474</v>
+        <v>0.006572148969969678</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.278846560253908</v>
+        <v>6.068898786018692</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.006572148969969678</v>
+        <v>0.960433910537286</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>6.068898786018692</v>
+        <v>0.8196970605521563</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.960433910537286</v>
+        <v>106</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.8196970605521563</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>8.539363288768081</v>
       </c>
     </row>
@@ -7405,72 +7279,66 @@
         <v>3.36651117020881e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.3161709384107808</v>
+        <v>1.283597668392887e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.5817289852056358</v>
+        <v>2.965106192034963e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.283597668392887e-06</v>
+        <v>-0.03348066974066156</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.965106192034963e-06</v>
+        <v>0.1404773978000336</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.03348066974066156</v>
+        <v>0.02085413359677262</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1404773978000336</v>
+        <v>1.931426032326625</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.02085413359677262</v>
+        <v>3.214867340138077</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.96080623322851</v>
+        <v>6.660904169547388</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.214867340138077</v>
+        <v>1.485359552908546e-17</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>6.660904169547388</v>
+        <v>11976577156.82554</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.485359552908546e-17</v>
+        <v>1.010293019914671e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>11976577156.82554</v>
+        <v>2130.575982782508</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.010293019914671e-08</v>
+        <v>8.166197956335151e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>2130.575982782508</v>
+        <v>10.44235403951787</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>8.166197956335151e-05</v>
+        <v>1.111577971579775</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.44235403951787</v>
+        <v>0.008904647466069889</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.111577971579775</v>
+        <v>5.249655038366387</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.008904647466069889</v>
+        <v>0.9589748658883316</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>5.249655038366387</v>
+        <v>0.8197114943684013</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9589748658883316</v>
+        <v>106</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.8197114943684013</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>6.37040509411119</v>
       </c>
     </row>
@@ -7485,72 +7353,66 @@
         <v>3.449506276243825e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.305712056155423</v>
+        <v>1.302855471680777e-06</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.6264693033272573</v>
+        <v>2.953951738574443e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.302855471680777e-06</v>
+        <v>-0.03201846283191541</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.953951738574443e-06</v>
+        <v>0.136890413316215</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.03201846283191541</v>
+        <v>0.01976354003671276</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.136890413316215</v>
+        <v>1.931311739032682</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01976354003671276</v>
+        <v>2.959197146205357</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.961810075303032</v>
+        <v>5.553242716065867</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.959197146205357</v>
+        <v>1.395719537657916e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>5.553242716065867</v>
+        <v>12499789455.18692</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.395719537657916e-17</v>
+        <v>9.67054293181462e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>12499789455.18692</v>
+        <v>2180.73831283191</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>9.67054293181462e-09</v>
+        <v>8.985921305813806e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2180.73831283191</v>
+        <v>10.30597200569184</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>8.985921305813806e-05</v>
+        <v>1.146982316970056</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.30597200569184</v>
+        <v>0.009544221896629448</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.146982316970056</v>
+        <v>4.976065177609456</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.009544221896629448</v>
+        <v>0.9597685618178247</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>4.976065177609456</v>
+        <v>0.8012123908984033</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9597685618178247</v>
+        <v>106</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.8012123908984033</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>106</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>5.718947029784877</v>
       </c>
     </row>
@@ -7565,72 +7427,66 @@
         <v>3.533496905256091e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.2949294596465848</v>
+        <v>1.321762184756213e-06</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.6731703035931034</v>
+        <v>2.943013390588697e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.321762184756213e-06</v>
+        <v>-0.03067577416851102</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.943013390588697e-06</v>
+        <v>0.1334622704907625</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.03067577416851102</v>
+        <v>0.01875263893337761</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1334622704907625</v>
+        <v>1.924089191661057</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01875263893337761</v>
+        <v>3.202377941138958</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.958027840996025</v>
+        <v>5.631165980222391</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.202377941138958</v>
+        <v>1.357359266710638e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.631165980222391</v>
+        <v>12278550049.14127</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.357359266710638e-17</v>
+        <v>9.766989851334512e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>12278550049.14127</v>
+        <v>2046.392718587959</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>9.766989851334512e-09</v>
+        <v>8.49199718632186e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2046.392718587959</v>
+        <v>9.176938220589966</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>8.49199718632186e-05</v>
+        <v>1.201146848393011</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.176938220589966</v>
+        <v>0.007151636918703583</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.201146848393011</v>
+        <v>5.18684229770509</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.007151636918703583</v>
+        <v>0.9588089914885801</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>5.18684229770509</v>
+        <v>0.8307298505966425</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9588089914885801</v>
+        <v>112</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8307298505966425</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>5.929454255385864</v>
       </c>
     </row>
@@ -7645,72 +7501,66 @@
         <v>3.618171808207242e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.2841004758088865</v>
+        <v>1.340281666163094e-06</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.7206703331243265</v>
+        <v>2.932269460049624e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.340281666163094e-06</v>
+        <v>-0.02945053394378139</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.932269460049624e-06</v>
+        <v>0.1301958339708918</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.02945053394378139</v>
+        <v>0.01781782843894231</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1301958339708918</v>
+        <v>1.920023775288746</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01781782843894231</v>
+        <v>3.353316252853412</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.955174932770346</v>
+        <v>5.727875150613809</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.353316252853412</v>
+        <v>1.311911028167087e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>5.727875150613809</v>
+        <v>12520327655.8891</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.311911028167087e-17</v>
+        <v>9.567384643863364e-09</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>12520327655.8891</v>
+        <v>2056.533421490207</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>9.567384643863364e-09</v>
+        <v>8.504940617935352e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2056.533421490207</v>
+        <v>8.083704691655088</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>8.504940617935352e-05</v>
+        <v>1.641939941526873</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.083704691655088</v>
+        <v>0.005557662441166295</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.641939941526873</v>
+        <v>5.462494005346414</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.005557662441166295</v>
+        <v>0.9609107262007924</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>5.462494005346414</v>
+        <v>0.884404053315207</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9609107262007924</v>
+        <v>112</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.884404053315207</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>6.316431371733726</v>
       </c>
     </row>
@@ -7725,72 +7575,66 @@
         <v>3.703249373881558e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.2735166826670299</v>
+        <v>1.358270582354616e-06</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.7681227292490762</v>
+        <v>2.921697706126565e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.358270582354616e-06</v>
+        <v>-0.02834028163193792</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.921697706126565e-06</v>
+        <v>0.1270919369331601</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.02834028163193792</v>
+        <v>0.01695515367898788</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1270919369331601</v>
+        <v>1.923586093788765</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01695515367898788</v>
+        <v>3.386076361752565</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.958080595738962</v>
+        <v>5.827012935839228</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>3.386076361752565</v>
+        <v>1.267650420283592e-17</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>5.827012935839228</v>
+        <v>13242113555.54928</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.267650420283592e-17</v>
+        <v>9.054486115032281e-09</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>13242113555.54928</v>
+        <v>2222.870285063351</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>9.054486115032281e-09</v>
+        <v>8.651814265533984e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>2222.870285063351</v>
+        <v>8.926722083781259</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>8.651814265533984e-05</v>
+        <v>1.501100287290115</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>8.926722083781259</v>
+        <v>0.006894316481727071</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.501100287290115</v>
+        <v>5.3985563146365</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.006894316481727071</v>
+        <v>0.9615055590285682</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>5.3985563146365</v>
+        <v>0.7893596212564304</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9615055590285682</v>
+        <v>114</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.7893596212564304</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>6.128148496526821</v>
       </c>
     </row>
@@ -7805,72 +7649,66 @@
         <v>3.78845869719721e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.2635066728551799</v>
+        <v>1.37555203252337e-06</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.8149385692743305</v>
+        <v>2.911273684917911e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.37555203252337e-06</v>
+        <v>-0.02734621543858716</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.911273684917911e-06</v>
+        <v>0.124150546792535</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.02734621543858716</v>
+        <v>0.01616087923504713</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.124150546792535</v>
+        <v>1.917982408210634</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01616087923504713</v>
+        <v>3.214041891603512</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.950781511294319</v>
+        <v>5.785059593337543</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>3.214041891603512</v>
+        <v>1.286103129496073e-17</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>5.785059593337543</v>
+        <v>12805549876.04319</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.286103129496073e-17</v>
+        <v>9.34750916626144e-09</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>12805549876.04319</v>
+        <v>2108.979018015136</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>9.34750916626144e-09</v>
+        <v>8.61525055764337e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>2108.979018015136</v>
+        <v>10.09290258264402</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>8.61525055764337e-05</v>
+        <v>1.123782918803297</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>10.09290258264402</v>
+        <v>0.008776069935816418</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.123782918803297</v>
+        <v>5.075947201681111</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.008776069935816418</v>
+        <v>0.9610011496069057</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>5.075947201681111</v>
+        <v>0.8201357847751777</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9610011496069057</v>
+        <v>114</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.8201357847751777</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>5.56874177876894</v>
       </c>
     </row>
@@ -7885,72 +7723,66 @@
         <v>3.873513218235883e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.2544593174009787</v>
+        <v>1.3917870444336e-06</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.8607481773369119</v>
+        <v>2.900970650311082e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.3917870444336e-06</v>
+        <v>-0.02647134152982655</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.900970650311082e-06</v>
+        <v>0.1213709492926719</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.02647134152982655</v>
+        <v>0.01543143502854482</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1213709492926719</v>
+        <v>1.915509884139947</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01543143502854482</v>
+        <v>3.423874849066785</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.948573760047022</v>
+        <v>5.967757006366661</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>3.423874849066785</v>
+        <v>1.549508275466185e-17</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>5.967757006366661</v>
+        <v>10769887114.86726</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.549508275466185e-17</v>
+        <v>1.111519124596723e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>10769887114.86726</v>
+        <v>1797.281907647911</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.111519124596723e-08</v>
+        <v>9.238531492641168e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>1797.281907647911</v>
+        <v>10.2746551370846</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>9.238531492641168e-05</v>
+        <v>1.098669213057827</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>10.2746551370846</v>
+        <v>0.009752982646636287</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.098669213057827</v>
+        <v>4.84457250540517</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.009752982646636287</v>
+        <v>0.9633982118367415</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>4.84457250540517</v>
+        <v>0.852245570005489</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9633982118367415</v>
+        <v>114</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.852245570005489</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>5.16511752889076</v>
       </c>
     </row>
@@ -7965,72 +7797,66 @@
         <v>3.958095819723475e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.2468550782493524</v>
+        <v>1.406720816781326e-06</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.9053448621387985</v>
+        <v>2.890755756480628e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.406720816781326e-06</v>
+        <v>-0.02573198475252486</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.890755756480628e-06</v>
+        <v>0.1187517805725761</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.02573198475252486</v>
+        <v>0.01476400272042909</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1187517805725761</v>
+        <v>1.920872465935946</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01476400272042909</v>
+        <v>3.459636160055025</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.950668145224393</v>
+        <v>5.355307095805446</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>3.459636160055025</v>
+        <v>1.924187559110589e-17</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.355307095805446</v>
+        <v>8794783479.282515</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.924187559110589e-17</v>
+        <v>1.368368413121852e-08</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>8794783479.282515</v>
+        <v>1488.324758075968</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.368368413121852e-08</v>
+        <v>9.81306006931475e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>1488.324758075968</v>
+        <v>9.975407652556854</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>9.81306006931475e-05</v>
+        <v>1.132967967219691</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.975407652556854</v>
+        <v>0.009764854180547062</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.132967967219691</v>
+        <v>4.801885028726266</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.009764854180547062</v>
+        <v>0.9638372498222503</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>4.801885028726266</v>
+        <v>0.8904912612513259</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9638372498222503</v>
+        <v>114</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.8904912612513259</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>4.976543847143581</v>
       </c>
     </row>
@@ -8045,72 +7871,66 @@
         <v>4.041895478802641e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.2412252186802334</v>
+        <v>1.420130953741718e-06</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.9486061618332884</v>
+        <v>2.880585885148044e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.420130953741718e-06</v>
+        <v>-0.02514939399396792</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.880585885148044e-06</v>
+        <v>0.1162849024731464</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.02514939399396792</v>
+        <v>0.01415463378149819</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1162849024731464</v>
+        <v>1.920179776894669</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01415463378149819</v>
+        <v>3.275772628258913</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.951597858063999</v>
+        <v>5.373204894787543</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.275772628258913</v>
+        <v>2.663214360497106e-17</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>5.373204894787543</v>
+        <v>6439574996.809888</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.663214360497106e-17</v>
+        <v>1.866970512839278e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>6439574996.809888</v>
+        <v>1104.385090377258</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.866970512839278e-08</v>
+        <v>0.0001141243409392358</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>1104.385090377258</v>
+        <v>10.43235473821593</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001141243409392358</v>
+        <v>1.19981668428809</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>10.43235473821593</v>
+        <v>0.01242061141871036</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.19981668428809</v>
+        <v>4.671754149434461</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01242061141871036</v>
+        <v>0.9624895886171364</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>4.671754149434461</v>
+        <v>0.8746546574612942</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9624895886171364</v>
+        <v>114</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.8746546574612942</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>4.735354340808066</v>
       </c>
     </row>
@@ -8125,72 +7945,66 @@
         <v>4.124570715110332e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.2382055515994412</v>
+        <v>1.431629546328411e-06</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.9904428598837871</v>
+        <v>2.87040422572484e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.431629546328411e-06</v>
+        <v>-0.02475623436376032</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.87040422572484e-06</v>
+        <v>0.1139524018674291</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.02475623436376032</v>
+        <v>0.01359804926783533</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1139524018674291</v>
+        <v>1.919543764848019</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01359804926783533</v>
+        <v>3.066078084951866</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.953719481543934</v>
+        <v>4.781093474935192</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>3.066078084951866</v>
+        <v>4.022214707277325e-17</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.781093474935192</v>
+        <v>4183927059.413708</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>4.022214707277325e-17</v>
+        <v>2.871085495371112e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>4183927059.413708</v>
+        <v>704.0985646165378</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.871085495371112e-08</v>
+        <v>0.0001351040500525574</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>704.0985646165378</v>
+        <v>11.85405987201291</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001351040500525574</v>
+        <v>1.143140198055178</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>11.85405987201291</v>
+        <v>0.01898465026745982</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.143140198055178</v>
+        <v>4.494381298913564</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01898465026745982</v>
+        <v>0.9617658296851785</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>4.494381298913564</v>
+        <v>0.9352916137348766</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9617658296851785</v>
+        <v>114</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.9352916137348766</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>4.580485087317658</v>
       </c>
     </row>
@@ -8205,72 +8019,66 @@
         <v>4.205696299339256e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.2386098111510128</v>
+        <v>1.440709693357825e-06</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.03070300523769</v>
+        <v>2.860133643129896e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.440709693357825e-06</v>
+        <v>-0.02460027004199564</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.860133643129896e-06</v>
+        <v>0.1117157200984753</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.02460027004199564</v>
+        <v>0.01308562725180036</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1117157200984753</v>
+        <v>1.925240913772289</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01308562725180036</v>
+        <v>2.695189677530166</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.959492284142687</v>
+        <v>4.693341527109149</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>2.695189677530166</v>
+        <v>6.588368504666023e-17</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.693341527109149</v>
+        <v>2524497864.017897</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>6.588368504666023e-17</v>
+        <v>4.770350262754738e-08</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>2524497864.017897</v>
+        <v>419.8826191146393</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.770350262754738e-08</v>
+        <v>0.0001512150837651299</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>419.8826191146393</v>
+        <v>13.57832970040825</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001512150837651299</v>
+        <v>1.04071614274321</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>13.57832970040825</v>
+        <v>0.02787968187231759</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.04071614274321</v>
+        <v>4.369012816117674</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02787968187231759</v>
+        <v>0.9618625955750127</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>4.369012816117674</v>
+        <v>0.9558002190054767</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9618625955750127</v>
+        <v>114</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.9558002190054767</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>4.584649220214182</v>
       </c>
     </row>
@@ -8285,72 +8093,66 @@
         <v>4.28466387777112e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.2435110753611674</v>
+        <v>1.44659928348145e-06</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.068998791444608</v>
+        <v>2.84966978000579e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.44659928348145e-06</v>
+        <v>-0.02474227953666252</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.84966978000579e-06</v>
+        <v>0.1094969391420623</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.02474227953666252</v>
+        <v>0.01260174603856501</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1094969391420623</v>
+        <v>1.923115351819269</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01260174603856501</v>
+        <v>2.242086835050455</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.958776752078646</v>
+        <v>4.599157109887397</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.242086835050455</v>
+        <v>1.158076756237966e-16</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.599157109887397</v>
+        <v>1388911843.748333</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.158076756237966e-16</v>
+        <v>8.628894770494641e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>1388911843.748333</v>
+        <v>223.4018203662617</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>8.628894770494641e-08</v>
+        <v>0.0001791983569438768</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>223.4018203662617</v>
+        <v>14.43620880499996</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001791983569438768</v>
+        <v>1.017362999843671</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>14.43620880499996</v>
+        <v>0.03734567671967814</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.017362999843671</v>
+        <v>3.994555012837863</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.03734567671967814</v>
+        <v>0.9613065143590949</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.994555012837863</v>
+        <v>0.9812946984835769</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9613065143590949</v>
+        <v>114</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.9812946984835769</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>3.977490123992115</v>
       </c>
     </row>
@@ -8727,7 +8529,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.253875678409394</v>
+        <v>1.27545679689523</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.741032305054312</v>
@@ -8816,7 +8618,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.253130050370579</v>
+        <v>1.27262210347122</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.771874580181459</v>
@@ -8905,7 +8707,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.274071019999416</v>
+        <v>1.298281695101689</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.714590901593581</v>
@@ -8994,7 +8796,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.292488804613248</v>
+        <v>1.315151834817018</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.646563115514295</v>
@@ -9083,7 +8885,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.291037709657861</v>
+        <v>1.31439875809568</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.657966082375858</v>
@@ -9172,7 +8974,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.300149531301371</v>
+        <v>1.324079101444501</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.675437307315725</v>
@@ -9261,7 +9063,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.287441538911311</v>
+        <v>1.307154301191867</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.656980221166579</v>
@@ -9350,7 +9152,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.283084626822999</v>
+        <v>1.300769528167113</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.645418435928677</v>
@@ -9439,7 +9241,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.293089456081062</v>
+        <v>1.308392016014631</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.640790030977247</v>
@@ -9528,7 +9330,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.293579407979651</v>
+        <v>1.305730387328251</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.588641115141078</v>
@@ -9617,7 +9419,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.285690673839946</v>
+        <v>1.29690115944478</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.573757772454465</v>
@@ -9706,7 +9508,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.284425624649369</v>
+        <v>1.295184832194256</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.570538920839823</v>
@@ -9795,7 +9597,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.286683517391464</v>
+        <v>1.29585166556459</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.571854208828129</v>
@@ -9884,7 +9686,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.287039070830918</v>
+        <v>1.295486177986418</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.581761662546826</v>
@@ -9973,7 +9775,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.315337476688237</v>
+        <v>1.32303753212986</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.523896090148527</v>
@@ -10062,7 +9864,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.533691730181663</v>
+        <v>1.533019808168218</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.866009551424524</v>
@@ -10151,7 +9953,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.576012651611133</v>
+        <v>1.574252771048082</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.393001066144279</v>
@@ -10240,7 +10042,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.538951533162932</v>
+        <v>1.542208578879042</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.41364386953787</v>
@@ -10329,7 +10131,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.504759272147457</v>
+        <v>1.504603102124413</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.314399031628025</v>
@@ -10418,7 +10220,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.396292736912368</v>
+        <v>1.404495503302029</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.741654655792839</v>
@@ -10507,7 +10309,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.358226146780424</v>
+        <v>1.370617675832977</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.792283086318056</v>
@@ -10596,7 +10398,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.371845876216588</v>
+        <v>1.382081672131393</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.758401363578254</v>
@@ -10685,7 +10487,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.379472982377555</v>
+        <v>1.391006095038082</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.760618461770747</v>
@@ -10774,7 +10576,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.391778126094075</v>
+        <v>1.40457820605557</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.725452017710516</v>
@@ -10863,7 +10665,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.395863921758202</v>
+        <v>1.409184806938525</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.76462764889536</v>
@@ -10952,7 +10754,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.396956851982202</v>
+        <v>1.409938036074669</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.754728662384035</v>
@@ -11041,7 +10843,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.417003380807271</v>
+        <v>1.428675071434889</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.755943583029141</v>
@@ -11130,7 +10932,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.419680134390814</v>
+        <v>1.434591178493375</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.761940061260611</v>
@@ -11219,7 +11021,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.420359956428128</v>
+        <v>1.435603836057061</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.770304589170789</v>
@@ -11308,7 +11110,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.418306082055451</v>
+        <v>1.433890252528249</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.763840873862425</v>
@@ -11397,7 +11199,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.41464963507421</v>
+        <v>1.430036846447803</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.76808642315398</v>
@@ -11486,7 +11288,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.40727269035145</v>
+        <v>1.419434420718603</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.735424260504796</v>
@@ -11575,7 +11377,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.428025835928095</v>
+        <v>1.433958460228184</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.752493305739715</v>
@@ -11664,7 +11466,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.43364956121327</v>
+        <v>1.439677466706592</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.655526722329989</v>
@@ -11753,7 +11555,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.597797086951844</v>
+        <v>1.585061213226084</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.078975581920163</v>
@@ -11842,7 +11644,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.69564629637335</v>
+        <v>1.666676174302467</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.273981698055597</v>
@@ -11931,7 +11733,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.618846811797074</v>
+        <v>1.603943711188407</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.360471465188708</v>
@@ -12020,7 +11822,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.626960447046221</v>
+        <v>1.613742042179734</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.418332985292161</v>
@@ -12109,7 +11911,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.625862975271306</v>
+        <v>1.604094579411737</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.370452996446203</v>
@@ -12198,7 +12000,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.630308445460073</v>
+        <v>1.608442864483382</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.412591665436445</v>
@@ -12287,7 +12089,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.629966614921818</v>
+        <v>1.609536729862608</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.368002766338356</v>
@@ -12376,7 +12178,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.576316594217803</v>
+        <v>1.568111160550235</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.424414826607142</v>
@@ -12465,7 +12267,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.561170263139925</v>
+        <v>1.551853559909896</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.361689435631959</v>
@@ -12554,7 +12356,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.549677876659981</v>
+        <v>1.533254129121514</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.334679150422211</v>
@@ -12643,7 +12445,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.542759831417539</v>
+        <v>1.526295608849849</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.336955237141682</v>
@@ -12732,7 +12534,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.541018510254081</v>
+        <v>1.523697738121466</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.34402082045437</v>
@@ -12821,7 +12623,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.548894710358829</v>
+        <v>1.53470040979906</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.308246042819144</v>
@@ -12910,7 +12712,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.543222934445909</v>
+        <v>1.532378699433867</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.424128740468451</v>
@@ -12999,7 +12801,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.587126978647925</v>
+        <v>1.569215538364759</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.320154983174511</v>
@@ -13088,7 +12890,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.587074249391139</v>
+        <v>1.564362082923155</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.315126779996274</v>
@@ -13177,7 +12979,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.587854413381789</v>
+        <v>1.565459671627593</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.38074210800489</v>
@@ -13266,7 +13068,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.672033348423282</v>
+        <v>1.633984578668045</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.468132743866458</v>
@@ -13355,7 +13157,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.640736443523212</v>
+        <v>1.603305684101565</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.162688210677481</v>
@@ -13444,7 +13246,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.641597907963094</v>
+        <v>1.610353661408804</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.153526685012477</v>
@@ -13533,7 +13335,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.624893093000472</v>
+        <v>1.574274321806354</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.144734402358206</v>
@@ -13622,7 +13424,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.576871556758671</v>
+        <v>1.551674017506107</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.243177514552689</v>
@@ -13711,7 +13513,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.648451813663493</v>
+        <v>1.608781408425324</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.335735153999398</v>
@@ -13800,7 +13602,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.656306179546435</v>
+        <v>1.612487599982964</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.345729409437541</v>
@@ -13889,7 +13691,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.648396234903977</v>
+        <v>1.618285225916752</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.278631752294498</v>
@@ -13978,7 +13780,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.658088684152644</v>
+        <v>1.629460662407299</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.363543201734141</v>
@@ -14067,7 +13869,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.649609479066295</v>
+        <v>1.620966017467397</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.417829195338571</v>
@@ -14156,7 +13958,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.65735530601308</v>
+        <v>1.625682857545883</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.340566843730021</v>
@@ -14245,7 +14047,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.668225266020227</v>
+        <v>1.642926241150504</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.383207797189792</v>
@@ -14334,7 +14136,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.616879568681906</v>
+        <v>1.600872337310127</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.372585536462942</v>
@@ -14423,7 +14225,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.621454949836661</v>
+        <v>1.607720171284104</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.347068303576986</v>
@@ -14512,7 +14314,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.630071539945182</v>
+        <v>1.617641727602604</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.439979761673711</v>
@@ -14601,7 +14403,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.638156569666664</v>
+        <v>1.628099415456173</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.457872928533392</v>
@@ -14690,7 +14492,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.641438464089249</v>
+        <v>1.625852775403403</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.468760306888784</v>
@@ -14779,7 +14581,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.644834663714166</v>
+        <v>1.631852985660393</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.508958389408921</v>
@@ -14868,7 +14670,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.684852863173981</v>
+        <v>1.664488586405183</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.18174362863162</v>
@@ -14957,7 +14759,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.675437187850266</v>
+        <v>1.660660940395232</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.569640151653357</v>
@@ -15046,7 +14848,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.674410385070682</v>
+        <v>1.668397225604375</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.560963171635385</v>
@@ -15135,7 +14937,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.676412999009182</v>
+        <v>1.667797883564011</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.502727791818237</v>
@@ -15224,7 +15026,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.68592550887275</v>
+        <v>1.678273774875498</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.562373496862188</v>
@@ -15313,7 +15115,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.689830797989909</v>
+        <v>1.681660282969642</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.367471412836147</v>
@@ -15402,7 +15204,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.671637093644237</v>
+        <v>1.662591711721956</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.338310141105733</v>
@@ -15688,7 +15490,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.636499291126448</v>
+        <v>1.667785133727681</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.506725262795653</v>
@@ -15777,7 +15579,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.638166605256127</v>
+        <v>1.66911396495915</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.472957227345925</v>
@@ -15866,7 +15668,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.673983640639111</v>
+        <v>1.698674001165924</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.191675255231251</v>
@@ -15955,7 +15757,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.665528417261678</v>
+        <v>1.672457689488254</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.327587481177215</v>
@@ -16044,7 +15846,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.671886185727595</v>
+        <v>1.68123014324758</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.324512593978012</v>
@@ -16133,7 +15935,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.67501649693538</v>
+        <v>1.679845318967392</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.241409638490627</v>
@@ -16222,7 +16024,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.652508693588553</v>
+        <v>1.649145776771044</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.173219154543456</v>
@@ -16311,7 +16113,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.6166368120085</v>
+        <v>1.614079363011694</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.130068808641244</v>
@@ -16400,7 +16202,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.554511619088257</v>
+        <v>1.540089357900345</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.034134805192902</v>
@@ -16489,7 +16291,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.560183771616075</v>
+        <v>1.543375352175441</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.016541362006601</v>
@@ -16578,7 +16380,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.560777658513116</v>
+        <v>1.53983953449219</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.011568664680417</v>
@@ -16667,7 +16469,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.570089189512139</v>
+        <v>1.543902874778171</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.022828202859436</v>
@@ -16756,7 +16558,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.576356977652201</v>
+        <v>1.551608262333524</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.053735808282299</v>
@@ -16845,7 +16647,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.574923729319338</v>
+        <v>1.552199932679718</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.058598368900609</v>
@@ -16934,7 +16736,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.597948854763856</v>
+        <v>1.570006336055783</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.965820627460104</v>
@@ -17023,7 +16825,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.749261319352402</v>
+        <v>1.681182764828275</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.694484400438116</v>
@@ -17112,7 +16914,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.745734393007287</v>
+        <v>1.678274644804559</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.110138968667393</v>
@@ -17201,7 +17003,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.736299263138326</v>
+        <v>1.667506491857553</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.294397918386664</v>
@@ -17290,7 +17092,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.725657756942382</v>
+        <v>1.658547823892008</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.187908234632222</v>
@@ -17379,7 +17181,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.721483875733729</v>
+        <v>1.662357249247619</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.170316522818027</v>
@@ -17468,7 +17270,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.68238832518936</v>
+        <v>1.63876204337208</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.887264310523255</v>
@@ -17557,7 +17359,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.690716480187064</v>
+        <v>1.648044782555402</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.247172033149685</v>
@@ -17646,7 +17448,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.683145378715052</v>
+        <v>1.638902402392466</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.297483290964363</v>
@@ -17735,7 +17537,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.688602857259499</v>
+        <v>1.643656981082579</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.131040103851038</v>
@@ -17824,7 +17626,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.690232468411295</v>
+        <v>1.647945743280616</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.144990861111514</v>
@@ -17913,7 +17715,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.69491290737301</v>
+        <v>1.668893829239055</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.762063298824257</v>
@@ -18002,7 +17804,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.709169886071933</v>
+        <v>1.690233575944283</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.704486986965724</v>
@@ -18091,7 +17893,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.709916193878759</v>
+        <v>1.69461439178254</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.714442298491309</v>
@@ -18180,7 +17982,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.706612003365587</v>
+        <v>1.691403380086868</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.854057045255509</v>
@@ -18269,7 +18071,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.705740114578689</v>
+        <v>1.688693172776702</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.876463830655925</v>
@@ -18358,7 +18160,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.698469144372428</v>
+        <v>1.675743714548546</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.012886466137501</v>
@@ -18447,7 +18249,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.694609794744929</v>
+        <v>1.677174816981148</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.720349220106603</v>
@@ -18536,7 +18338,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.698942140073924</v>
+        <v>1.680967928691682</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.621743875286654</v>
@@ -18625,7 +18427,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.706211489869317</v>
+        <v>1.693158289606034</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.754578949169871</v>
@@ -18714,7 +18516,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.695449347494303</v>
+        <v>1.677988561842929</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.882649795753857</v>
@@ -18803,7 +18605,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.706490767105907</v>
+        <v>1.684848369478845</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.646465180906636</v>
@@ -18892,7 +18694,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.675209683884992</v>
+        <v>1.659044486026911</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.581281220019188</v>
@@ -18981,7 +18783,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.701429492738838</v>
+        <v>1.703444171825931</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.257936245619538</v>
@@ -19070,7 +18872,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.686109569434809</v>
+        <v>1.689307761546127</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.26614812652844</v>
@@ -19159,7 +18961,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.690984287149589</v>
+        <v>1.695260772173268</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.248720898550804</v>
@@ -19248,7 +19050,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.687627677150677</v>
+        <v>1.682784939117302</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.197310390073564</v>
@@ -19337,7 +19139,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.669261395546419</v>
+        <v>1.665546731056665</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.129576814229604</v>
@@ -19426,7 +19228,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.647266035294273</v>
+        <v>1.643344411689353</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.128184556859197</v>
@@ -19515,7 +19317,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.640270291822682</v>
+        <v>1.626926952274237</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.13002507414455</v>
@@ -19604,7 +19406,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.62301546290768</v>
+        <v>1.610915223610723</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.118569524721993</v>
@@ -19693,7 +19495,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.632932892884366</v>
+        <v>1.624283494528978</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.111705224402831</v>
@@ -19782,7 +19584,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.639613480574448</v>
+        <v>1.632928946879222</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.166082100985638</v>
@@ -19871,7 +19673,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.636082048020511</v>
+        <v>1.627749611848743</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.146878534072526</v>
@@ -19960,7 +19762,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.634386029618206</v>
+        <v>1.625627327285218</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.154696624389259</v>
@@ -20049,7 +19851,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.631425406576276</v>
+        <v>1.61598567567981</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.134167055716996</v>
@@ -20138,7 +19940,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.651806892436895</v>
+        <v>1.630840089871368</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.114450649274451</v>
@@ -20227,7 +20029,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.673267861756915</v>
+        <v>1.64520088071836</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.001309790101366</v>
@@ -20316,7 +20118,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.629766283893816</v>
+        <v>1.571312471523332</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.871412925613593</v>
@@ -20405,7 +20207,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.633945569206916</v>
+        <v>1.575087573206001</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.868227084932735</v>
@@ -20494,7 +20296,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.613484046019347</v>
+        <v>1.545521399766188</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.902358578218617</v>
@@ -20583,7 +20385,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.600329838414059</v>
+        <v>1.532441833844626</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.850424004286135</v>
@@ -20672,7 +20474,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.599987627901323</v>
+        <v>1.529945592702958</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.713072289277933</v>
@@ -20761,7 +20563,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.615603749906081</v>
+        <v>1.541572758765646</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.854477953196921</v>
@@ -20850,7 +20652,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.626886680863483</v>
+        <v>1.56305668131408</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.9528230312225</v>
@@ -20939,7 +20741,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.648694376679225</v>
+        <v>1.584188763907751</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.221501455673427</v>
@@ -21028,7 +20830,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.634554684806409</v>
+        <v>1.574659916788065</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.91033608731832</v>
@@ -21117,7 +20919,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.627761174085392</v>
+        <v>1.564931628066032</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.088232640087726</v>
@@ -21206,7 +21008,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.643547258398655</v>
+        <v>1.581771187267511</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.13327463830359</v>
@@ -21295,7 +21097,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.639546840584276</v>
+        <v>1.572071594673989</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.132912244208852</v>
@@ -21384,7 +21186,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.657382434416421</v>
+        <v>1.598250763975553</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.155315324540142</v>
@@ -21473,7 +21275,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.633594181859009</v>
+        <v>1.580344598599711</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.930886799592543</v>
@@ -21562,7 +21364,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.632062651229204</v>
+        <v>1.588727119561395</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.798808093381112</v>
@@ -21651,7 +21453,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.636912763276301</v>
+        <v>1.591526770721019</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.811863448611021</v>
@@ -21740,7 +21542,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.640390112635153</v>
+        <v>1.597502625781079</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.099400948218575</v>
@@ -21829,7 +21631,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.648085285570762</v>
+        <v>1.610170478997425</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.605623031541321</v>
@@ -21918,7 +21720,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.660687865902221</v>
+        <v>1.622752730589565</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.605152770483998</v>
@@ -22007,7 +21809,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.661673993683026</v>
+        <v>1.629408933538528</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.630401733769093</v>
@@ -22096,7 +21898,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.638807254510873</v>
+        <v>1.611612839449116</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.67542511712284</v>
@@ -22185,7 +21987,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.612799820251283</v>
+        <v>1.594391499436985</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.749588963273572</v>
@@ -22274,7 +22076,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.615673367870773</v>
+        <v>1.596517653273018</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.986927988547905</v>
@@ -22363,7 +22165,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.615978461867585</v>
+        <v>1.589806566529094</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.850312651296883</v>
@@ -22649,7 +22451,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.713144786096068</v>
+        <v>1.728892063621552</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.508539135262374</v>
@@ -22738,7 +22540,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.713820109431452</v>
+        <v>1.724629329887631</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.520139517617831</v>
@@ -22827,7 +22629,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.773498295171923</v>
+        <v>1.772070168039315</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.541340272995567</v>
@@ -22916,7 +22718,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.782805675107553</v>
+        <v>1.7677190354896</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.810093684090249</v>
@@ -23005,7 +22807,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.767509285277312</v>
+        <v>1.756458156189462</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.627148795189688</v>
@@ -23094,7 +22896,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.769769407521308</v>
+        <v>1.753870917768731</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.618812431226667</v>
@@ -23183,7 +22985,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.739367215372978</v>
+        <v>1.715012283212727</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.37963876251855</v>
@@ -23272,7 +23074,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.729741528148636</v>
+        <v>1.704833208814748</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.330497903485408</v>
@@ -23361,7 +23163,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.712354384377698</v>
+        <v>1.679276996164393</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.362852273279561</v>
@@ -23450,7 +23252,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.694498559435037</v>
+        <v>1.653178425989465</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.344581412180315</v>
@@ -23539,7 +23341,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.686736019743164</v>
+        <v>1.640092336594121</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.312641132859501</v>
@@ -23628,7 +23430,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.689857479952697</v>
+        <v>1.63879430670964</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.31204252528843</v>
@@ -23717,7 +23519,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.688972605164611</v>
+        <v>1.633599114210318</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.327887346695606</v>
@@ -23806,7 +23608,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.687067197415109</v>
+        <v>1.636228434502424</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.413908006040082</v>
@@ -23895,7 +23697,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.698438746890485</v>
+        <v>1.646129040873238</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.200299769420353</v>
@@ -23984,7 +23786,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.740858206384863</v>
+        <v>1.670908126472437</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.627139220667097</v>
@@ -24073,7 +23875,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.733607209994794</v>
+        <v>1.661500409934418</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.311800236805488</v>
@@ -24162,7 +23964,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.726926910852964</v>
+        <v>1.652065809920382</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.676289748798814</v>
@@ -24251,7 +24053,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.724668198608734</v>
+        <v>1.642147278195008</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.126840546550923</v>
@@ -24340,7 +24142,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.757434263963451</v>
+        <v>1.693421779675543</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.557760759080446</v>
@@ -24429,7 +24231,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.734437132576035</v>
+        <v>1.683795805264333</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.505779718801362</v>
@@ -24518,7 +24320,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.749492996708857</v>
+        <v>1.704034898966178</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.640169888760112</v>
@@ -24607,7 +24409,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.752825803647872</v>
+        <v>1.708005973123405</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.722576688111257</v>
@@ -24696,7 +24498,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.76192323738794</v>
+        <v>1.722251162873963</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.717845517142158</v>
@@ -24785,7 +24587,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.766684098672176</v>
+        <v>1.723918552682586</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.679244115346401</v>
@@ -24874,7 +24676,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.762736455698534</v>
+        <v>1.724617851319584</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.675431723584571</v>
@@ -24963,7 +24765,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.775474300133381</v>
+        <v>1.73808021487176</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.706343096368618</v>
@@ -25052,7 +24854,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.781032641848053</v>
+        <v>1.750346342174804</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.754930610657742</v>
@@ -25141,7 +24943,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.775567777272827</v>
+        <v>1.745118368260814</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.783035253472059</v>
@@ -25230,7 +25032,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.773650862416464</v>
+        <v>1.743405116648872</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.71882978953021</v>
@@ -25319,7 +25121,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.775285842736258</v>
+        <v>1.746406698272135</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.634404181424754</v>
@@ -25408,7 +25210,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.769137927266893</v>
+        <v>1.743082832676228</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.672861242692332</v>
@@ -25497,7 +25299,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.777359350623858</v>
+        <v>1.746443913315966</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.946073014712622</v>
@@ -25586,7 +25388,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.776942523836283</v>
+        <v>1.756009445798385</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.827886298411784</v>
@@ -25675,7 +25477,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.769599369365407</v>
+        <v>1.736025351047586</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.626778387854638</v>
@@ -25764,7 +25566,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.778847369618748</v>
+        <v>1.733798369492667</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.597992252077912</v>
@@ -25853,7 +25655,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.753808896020168</v>
+        <v>1.712939555807302</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.301097141110789</v>
@@ -25942,7 +25744,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.785324638990511</v>
+        <v>1.756738829705527</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.841438932437871</v>
@@ -26031,7 +25833,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.779631065110294</v>
+        <v>1.748568698853258</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.722159482457692</v>
@@ -26120,7 +25922,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.77753552364551</v>
+        <v>1.749888340631417</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.804602762929852</v>
@@ -26209,7 +26011,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.784828418379095</v>
+        <v>1.757529514242732</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.726015174208616</v>
@@ -26298,7 +26100,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.767161910191387</v>
+        <v>1.744978890429073</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.698700132046792</v>
@@ -26387,7 +26189,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.759278089399256</v>
+        <v>1.736280537609477</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.662328420515123</v>
@@ -26476,7 +26278,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.751096765986619</v>
+        <v>1.725050548340954</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.653359848215577</v>
@@ -26565,7 +26367,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.738866196634867</v>
+        <v>1.714597225861872</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.762584604711102</v>
@@ -26654,7 +26456,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.741853277592095</v>
+        <v>1.715255034387536</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.627877287961839</v>
@@ -26743,7 +26545,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.74886311767639</v>
+        <v>1.724735846076739</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.714232927033929</v>
@@ -26832,7 +26634,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.741799446083698</v>
+        <v>1.71810051618586</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.627151021960167</v>
@@ -26921,7 +26723,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.748960311258103</v>
+        <v>1.722486413026477</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.753329284826191</v>
@@ -27010,7 +26812,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.742549009264941</v>
+        <v>1.714044307582606</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.659752951133067</v>
@@ -27099,7 +26901,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.746730542383985</v>
+        <v>1.721472551796644</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.604189555832548</v>
@@ -27188,7 +26990,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.765778934651205</v>
+        <v>1.734395607067245</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.658843809662972</v>
@@ -27277,7 +27079,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.716834268633402</v>
+        <v>1.661892754700095</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.590496493856725</v>
@@ -27366,7 +27168,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.723769800393275</v>
+        <v>1.666987708674142</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.651488898032441</v>
@@ -27455,7 +27257,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.7135727944285</v>
+        <v>1.654361282576445</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.931156197907241</v>
@@ -27544,7 +27346,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.700548342899386</v>
+        <v>1.646656746746739</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.145917337732072</v>
@@ -27633,7 +27435,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.707950907814601</v>
+        <v>1.647846915424131</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.041123931486883</v>
@@ -27722,7 +27524,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.718263156805324</v>
+        <v>1.655331379610603</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.369721365646777</v>
@@ -27811,7 +27613,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.725857046178309</v>
+        <v>1.662449880500713</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.933114348721442</v>
@@ -27900,7 +27702,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.743416621415868</v>
+        <v>1.672335481108149</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.171435248126942</v>
@@ -27989,7 +27791,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.732032759337351</v>
+        <v>1.666729849882292</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.256361313491743</v>
@@ -28078,7 +27880,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.730778284591056</v>
+        <v>1.666945622385971</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.105828647569277</v>
@@ -28167,7 +27969,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.745516620921271</v>
+        <v>1.685146933544423</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.057147021317308</v>
@@ -28256,7 +28058,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.741383555371053</v>
+        <v>1.680739419787963</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.301701861052132</v>
@@ -28345,7 +28147,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.753786328311079</v>
+        <v>1.690564817051823</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.07264224670656</v>
@@ -28434,7 +28236,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.760679486961566</v>
+        <v>1.701075150310784</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.467747034049343</v>
@@ -28523,7 +28325,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.759623841533683</v>
+        <v>1.703756627141541</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.45275460410206</v>
@@ -28612,7 +28414,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.766900798486219</v>
+        <v>1.719496266788632</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.512300011366044</v>
@@ -28701,7 +28503,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.768032610977632</v>
+        <v>1.727709757748355</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.382428603999255</v>
@@ -28790,7 +28592,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.786988852792117</v>
+        <v>1.739379325865618</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.985156374654262</v>
@@ -28879,7 +28681,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.787960176660103</v>
+        <v>1.741262293678603</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.225036959105859</v>
@@ -28968,7 +28770,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.797489714690845</v>
+        <v>1.751944637434018</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.726874390427109</v>
@@ -29057,7 +28859,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.78659934673969</v>
+        <v>1.746761768105221</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.451245541778603</v>
@@ -29146,7 +28948,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.774880971575929</v>
+        <v>1.739928513526704</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.499048773504704</v>
@@ -29235,7 +29037,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.777942654872011</v>
+        <v>1.748581286654142</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.655710398809819</v>
@@ -29324,7 +29126,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.776363904691772</v>
+        <v>1.740957174942628</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.713102017946071</v>
@@ -29610,7 +29412,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.657684541594549</v>
+        <v>1.694619614822275</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.245927802838295</v>
@@ -29699,7 +29501,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.642673378204528</v>
+        <v>1.675247296854852</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.257394080866447</v>
@@ -29788,7 +29590,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.64201065138332</v>
+        <v>1.668578314233969</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.164177052081237</v>
@@ -29877,7 +29679,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.638054279624179</v>
+        <v>1.659434713639952</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.078955593946604</v>
@@ -29966,7 +29768,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.623575413524438</v>
+        <v>1.640268600962626</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.046739245761477</v>
@@ -30055,7 +29857,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.622581897512265</v>
+        <v>1.634782514365989</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.079576604637587</v>
@@ -30144,7 +29946,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.605740495032554</v>
+        <v>1.611049729166388</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.970768983335868</v>
@@ -30233,7 +30035,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.602432517543298</v>
+        <v>1.609380358422163</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.970369590477165</v>
@@ -30322,7 +30124,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.598169499159145</v>
+        <v>1.599151815075379</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.040405322075423</v>
@@ -30411,7 +30213,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.596864929773391</v>
+        <v>1.585781392636584</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.959609194846001</v>
@@ -30500,7 +30302,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.591126475143112</v>
+        <v>1.582918761528995</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.918529270803461</v>
@@ -30589,7 +30391,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.594084428081868</v>
+        <v>1.580313227821218</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.935450086837244</v>
@@ -30678,7 +30480,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.59416431473344</v>
+        <v>1.577420351283165</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.914088241908035</v>
@@ -30767,7 +30569,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.586350034813578</v>
+        <v>1.56717469186491</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.913403470499303</v>
@@ -30856,7 +30658,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.613867291675935</v>
+        <v>1.587168385148532</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.826713577831165</v>
@@ -30945,7 +30747,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.768537295718703</v>
+        <v>1.703329658638238</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.119672221689537</v>
@@ -31034,7 +30836,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.773837768156612</v>
+        <v>1.710415304895867</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.703976795945714</v>
@@ -31123,7 +30925,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.777311769331301</v>
+        <v>1.707610033124859</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.6329289517589</v>
@@ -31212,7 +31014,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.784552335452924</v>
+        <v>1.697644852047794</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.782776035432704</v>
@@ -31301,7 +31103,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.75597360917176</v>
+        <v>1.700078963875619</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.536786031913424</v>
@@ -31390,7 +31192,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.746935258172109</v>
+        <v>1.700181130420009</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.566390058765232</v>
@@ -31479,7 +31281,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.743690061300446</v>
+        <v>1.697694402267704</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.532633161997214</v>
@@ -31568,7 +31370,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.744007432056367</v>
+        <v>1.701167037332819</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.694451291665326</v>
@@ -31657,7 +31459,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.743505166915548</v>
+        <v>1.70234904403654</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.536326415852815</v>
@@ -31746,7 +31548,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.7488072828703</v>
+        <v>1.70444093933507</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.527950623476582</v>
@@ -31835,7 +31637,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.74368330072645</v>
+        <v>1.697042006907052</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.50863706547578</v>
@@ -31924,7 +31726,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.747649380552468</v>
+        <v>1.701855564275246</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.634604591512275</v>
@@ -32013,7 +31815,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.744674971012035</v>
+        <v>1.707571682658106</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.635294555908996</v>
@@ -32102,7 +31904,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.748993995962353</v>
+        <v>1.712026325468477</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.618004709747542</v>
@@ -32191,7 +31993,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.750801879571899</v>
+        <v>1.711146501889007</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.667949162910604</v>
@@ -32280,7 +32082,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.747379488229997</v>
+        <v>1.704018255279297</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.537805535690736</v>
@@ -32369,7 +32171,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.754240149714619</v>
+        <v>1.708858387832838</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.560330451466587</v>
@@ -32458,7 +32260,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.756078380361028</v>
+        <v>1.71109341780672</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.579443040216435</v>
@@ -32547,7 +32349,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.729331740497124</v>
+        <v>1.706514082957196</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.59504524057044</v>
@@ -32636,7 +32438,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.748396294507329</v>
+        <v>1.705505448423916</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.439894934432248</v>
@@ -32725,7 +32527,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.744470380148582</v>
+        <v>1.698107417456487</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.531082268381618</v>
@@ -32814,7 +32616,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.737831199770724</v>
+        <v>1.686840733403368</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.558236882210949</v>
@@ -32903,7 +32705,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.731330109848771</v>
+        <v>1.683422393370678</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.528293001905883</v>
@@ -32992,7 +32794,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.728436700682777</v>
+        <v>1.685327472985666</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.660428595201754</v>
@@ -33081,7 +32883,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.722428052287383</v>
+        <v>1.682248222906285</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.682240452278862</v>
@@ -33170,7 +32972,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.732093495052696</v>
+        <v>1.691519000198267</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.554880073534924</v>
@@ -33259,7 +33061,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.72487929632774</v>
+        <v>1.687243218125231</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.676738019145722</v>
@@ -33348,7 +33150,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.722826345649882</v>
+        <v>1.679601583411196</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.627449866299133</v>
@@ -33437,7 +33239,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.705686035343296</v>
+        <v>1.655688224022285</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.602629749533363</v>
@@ -33526,7 +33328,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.689196198331137</v>
+        <v>1.640096391274444</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.470458896246</v>
@@ -33615,7 +33417,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.694547640324473</v>
+        <v>1.647523080105225</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.501227149978615</v>
@@ -33704,7 +33506,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.691016376578261</v>
+        <v>1.650005356729613</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.535173127328259</v>
@@ -33793,7 +33595,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.684451254585468</v>
+        <v>1.642593834220647</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.496066504850395</v>
@@ -33882,7 +33684,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.714705336230057</v>
+        <v>1.665010941078321</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.847226457426684</v>
@@ -33971,7 +33773,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.715095074526814</v>
+        <v>1.664076488584599</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.112255965261327</v>
@@ -34060,7 +33862,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.717358549334761</v>
+        <v>1.665598435500306</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.952973153840477</v>
@@ -34149,7 +33951,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.729892453024906</v>
+        <v>1.67819293482742</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.823752409424723</v>
@@ -34238,7 +34040,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.728022571314684</v>
+        <v>1.669146253027453</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.513801217936273</v>
@@ -34327,7 +34129,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.726542849307476</v>
+        <v>1.663587607440488</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.228236277683481</v>
@@ -34416,7 +34218,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.723702842881183</v>
+        <v>1.663663340783598</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.28390544471338</v>
@@ -34505,7 +34307,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.719038958740438</v>
+        <v>1.656760268727395</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.002668622696612</v>
@@ -34594,7 +34396,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.726705288897955</v>
+        <v>1.665162996716008</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.465500368536539</v>
@@ -34683,7 +34485,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.739069001819568</v>
+        <v>1.674346331858783</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.925214933090134</v>
@@ -34772,7 +34574,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.749858801719905</v>
+        <v>1.690825730896745</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.78525232881158</v>
@@ -34861,7 +34663,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.761484747009228</v>
+        <v>1.69476148765958</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.664936303001442</v>
@@ -34950,7 +34752,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.763542713498278</v>
+        <v>1.698128166053925</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.037229008459381</v>
@@ -35039,7 +34841,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.764961565572587</v>
+        <v>1.698213679071962</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.761808979243473</v>
@@ -35128,7 +34930,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.775836945925778</v>
+        <v>1.712010709621941</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.895056771920971</v>
@@ -35217,7 +35019,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.778708607120173</v>
+        <v>1.713852929684683</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.69437272958131</v>
@@ -35306,7 +35108,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.785388818763367</v>
+        <v>1.721522131766251</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>4.001781636272681</v>
@@ -35395,7 +35197,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.789219985673522</v>
+        <v>1.734428263230198</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.004306734580125</v>
@@ -35484,7 +35286,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.791509866656688</v>
+        <v>1.740282817712397</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.783054421833978</v>
@@ -35573,7 +35375,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.799302004455717</v>
+        <v>1.743578223142944</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.805573754749785</v>
@@ -35662,7 +35464,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.808726156358445</v>
+        <v>1.754026344913952</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.558300250455923</v>
@@ -35751,7 +35553,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.815344335735104</v>
+        <v>1.76043714017</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.232770640089752</v>
@@ -35840,7 +35642,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.796509805371867</v>
+        <v>1.746964691320797</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.817886327283527</v>
@@ -35929,7 +35731,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.795787255403041</v>
+        <v>1.743803084476269</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.755415274162359</v>
@@ -36018,7 +35820,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.801229186768461</v>
+        <v>1.752581556352434</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.846225408734174</v>
@@ -36107,7 +35909,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.792536367792328</v>
+        <v>1.752206852795791</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.6619208944184</v>
@@ -36196,7 +35998,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.798144898596917</v>
+        <v>1.763191054362951</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.535289843445877</v>
@@ -36285,7 +36087,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.804873094312169</v>
+        <v>1.769623771237175</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.95679146734554</v>
@@ -36571,7 +36373,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.474560065979151</v>
+        <v>1.499854523041317</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.857336772896509</v>
@@ -36660,7 +36462,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.45459027977132</v>
+        <v>1.470305008569394</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.805271220680482</v>
@@ -36749,7 +36551,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.571461898102676</v>
+        <v>1.574670439244197</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.059301306673422</v>
@@ -36838,7 +36640,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.592329947792721</v>
+        <v>1.593397675372743</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.172699970835094</v>
@@ -36927,7 +36729,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.57831902551414</v>
+        <v>1.578745103557397</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.241282946585637</v>
@@ -37016,7 +36818,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.584575641149768</v>
+        <v>1.579142562918342</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.27405422366558</v>
@@ -37105,7 +36907,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.571207298537228</v>
+        <v>1.556980749017634</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.183290904267569</v>
@@ -37194,7 +36996,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.572023032697096</v>
+        <v>1.550785979198534</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.142975730085674</v>
@@ -37283,7 +37085,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.573887763311487</v>
+        <v>1.550103338793936</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.172132319902635</v>
@@ -37372,7 +37174,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.595639719741903</v>
+        <v>1.564562184210869</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.132230636712865</v>
@@ -37461,7 +37263,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.599926655128998</v>
+        <v>1.572171555319478</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.139950069307948</v>
@@ -37550,7 +37352,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.60473949181337</v>
+        <v>1.567824238768402</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.105161276252902</v>
@@ -37639,7 +37441,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.607110623207952</v>
+        <v>1.562940605799913</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.120481530108392</v>
@@ -37728,7 +37530,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.601825224604409</v>
+        <v>1.555952970150415</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.137683341952104</v>
@@ -37817,7 +37619,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.614266331248323</v>
+        <v>1.572732156294912</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.046572773402989</v>
@@ -37906,7 +37708,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.73370966013569</v>
+        <v>1.65889415691721</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.499689413613474</v>
@@ -37995,7 +37797,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.728648556846638</v>
+        <v>1.656619537291402</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.562890924356979</v>
@@ -38084,7 +37886,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.719218396886247</v>
+        <v>1.641777959069158</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.330658028835594</v>
@@ -38173,7 +37975,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.705078880942895</v>
+        <v>1.618558733217012</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.451749130735017</v>
@@ -38262,7 +38064,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.703601009770422</v>
+        <v>1.636019638994076</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.622998685609204</v>
@@ -38351,7 +38153,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.669536345468669</v>
+        <v>1.61360457320601</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.575671159045963</v>
@@ -38440,7 +38242,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.668852620362313</v>
+        <v>1.611832078457762</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.75843465596796</v>
@@ -38529,7 +38331,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.678427618885185</v>
+        <v>1.629023571011339</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.784196976367268</v>
@@ -38618,7 +38420,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.673674796643454</v>
+        <v>1.629992956450774</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.850001059336701</v>
@@ -38707,7 +38509,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.670436452887486</v>
+        <v>1.627031593239965</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.821515751918063</v>
@@ -38796,7 +38598,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.639258019289106</v>
+        <v>1.603617988285189</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.787138543511642</v>
@@ -38885,7 +38687,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.640602018913192</v>
+        <v>1.613319072624852</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.665057297964098</v>
@@ -38974,7 +38776,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.635983457040396</v>
+        <v>1.618194982761525</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.761301368449272</v>
@@ -39063,7 +38865,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.632949277196458</v>
+        <v>1.617692100398354</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.837463479044656</v>
@@ -39152,7 +38954,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.633600317536547</v>
+        <v>1.617308388767257</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.743537216278681</v>
@@ -39241,7 +39043,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.627433607216925</v>
+        <v>1.607483123525062</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.64559397915712</v>
@@ -39330,7 +39132,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.62595559581505</v>
+        <v>1.610524602585595</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.828418099149103</v>
@@ -39419,7 +39221,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.63254716291676</v>
+        <v>1.61877423340463</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.721467270887936</v>
@@ -39508,7 +39310,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.638584954249147</v>
+        <v>1.635256668672357</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.25175500490856</v>
@@ -39597,7 +39399,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.618935823234768</v>
+        <v>1.606120344813331</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.881580333122843</v>
@@ -39686,7 +39488,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.619597882781171</v>
+        <v>1.598949731041078</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.806362186301298</v>
@@ -39775,7 +39577,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.607435452601774</v>
+        <v>1.595891392704663</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.904267883517884</v>
@@ -39864,7 +39666,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.606288379846712</v>
+        <v>1.592793333114076</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.979697609853444</v>
@@ -39953,7 +39755,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.603662558253362</v>
+        <v>1.579282760910361</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.980365312033649</v>
@@ -40042,7 +39844,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.608414518757177</v>
+        <v>1.582082158169362</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.819290134112547</v>
@@ -40131,7 +39933,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.637900240178759</v>
+        <v>1.602184893330132</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.978668252797593</v>
@@ -40220,7 +40022,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.635398426856181</v>
+        <v>1.603489318041258</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.751219448815826</v>
@@ -40309,7 +40111,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.626862880645148</v>
+        <v>1.593366553580686</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.973668989985868</v>
@@ -40398,7 +40200,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.617645345942998</v>
+        <v>1.579206540230716</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.817314819872639</v>
@@ -40487,7 +40289,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.599839001495374</v>
+        <v>1.56555892690938</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.943613477882258</v>
@@ -40576,7 +40378,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.608550445399941</v>
+        <v>1.573940573601448</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.850995889353697</v>
@@ -40665,7 +40467,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.619075708113808</v>
+        <v>1.588722439607798</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.9257328587378</v>
@@ -40754,7 +40556,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.61323732261792</v>
+        <v>1.581058169064207</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.865669580354974</v>
@@ -40843,7 +40645,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.615375246029156</v>
+        <v>1.589107078180185</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.884883346806664</v>
@@ -40932,7 +40734,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.613570692496771</v>
+        <v>1.587220377240079</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.81858779332671</v>
@@ -41021,7 +40823,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.649080610703747</v>
+        <v>1.619957690051198</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.939971008838826</v>
@@ -41110,7 +40912,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.671606855857785</v>
+        <v>1.635950487499477</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.626296953804211</v>
@@ -41199,7 +41001,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.660292096074686</v>
+        <v>1.61752240393381</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.814762158964916</v>
@@ -41288,7 +41090,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.678030043720965</v>
+        <v>1.642411838327641</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.995569090776147</v>
@@ -41377,7 +41179,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.657783985608301</v>
+        <v>1.617996868885957</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.053738590287704</v>
@@ -41466,7 +41268,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.645907956349224</v>
+        <v>1.606604410320989</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.976294202621807</v>
@@ -41555,7 +41357,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.637309379336965</v>
+        <v>1.592519533416592</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.920593938418945</v>
@@ -41644,7 +41446,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.646935339877034</v>
+        <v>1.602432460276343</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.959294294865678</v>
@@ -41733,7 +41535,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.659297213456339</v>
+        <v>1.61195199985077</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.882399462247249</v>
@@ -41822,7 +41624,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.669734455575764</v>
+        <v>1.619606198018259</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.168305602149599</v>
@@ -41911,7 +41713,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.657165447008491</v>
+        <v>1.608853937891668</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.032025071834025</v>
@@ -42000,7 +41802,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.642781254361823</v>
+        <v>1.587427663076953</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.368605313447763</v>
@@ -42089,7 +41891,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.649755914090532</v>
+        <v>1.59719581361699</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.232435531914553</v>
@@ -42178,7 +41980,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.649785544447965</v>
+        <v>1.590573096082813</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.217045738659715</v>
@@ -42267,7 +42069,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.656713596902775</v>
+        <v>1.602460871670788</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.259136437325964</v>
@@ -42356,7 +42158,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.639871399797574</v>
+        <v>1.58380547194043</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.840161252209883</v>
@@ -42445,7 +42247,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.634083375048545</v>
+        <v>1.586858472509447</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.785989105036904</v>
@@ -42534,7 +42336,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.63617847505359</v>
+        <v>1.591677693174289</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.834514396338063</v>
@@ -42623,7 +42425,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.631874192112193</v>
+        <v>1.586501936694145</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.943150888204022</v>
@@ -42712,7 +42514,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.653665482038261</v>
+        <v>1.611655444379881</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.572354780979294</v>
@@ -42801,7 +42603,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.65031973713055</v>
+        <v>1.611304925208258</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.732280397902239</v>
@@ -42890,7 +42692,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.654520836113009</v>
+        <v>1.619424680247711</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.856305006586419</v>
@@ -42979,7 +42781,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.632680794794624</v>
+        <v>1.595245937633615</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.690417382664256</v>
@@ -43068,7 +42870,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.605782543925688</v>
+        <v>1.581999248476603</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.74264623471555</v>
@@ -43157,7 +42959,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.612237606307757</v>
+        <v>1.587690569406467</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.566141963794401</v>
@@ -43246,7 +43048,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.614074018394399</v>
+        <v>1.585861295504727</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.890386308692539</v>
@@ -43532,7 +43334,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.403912382111381</v>
+        <v>1.427417466275158</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.618913110277833</v>
@@ -43621,7 +43423,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.416152275903929</v>
+        <v>1.439113487277479</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.505499794068915</v>
@@ -43710,7 +43512,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.424297764033244</v>
+        <v>1.449055982843627</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.446301106403856</v>
@@ -43799,7 +43601,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.463502570563018</v>
+        <v>1.484187305523319</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.565421008526528</v>
@@ -43888,7 +43690,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.460168593908376</v>
+        <v>1.481936340678</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.397326946081078</v>
@@ -43977,7 +43779,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.483997728021649</v>
+        <v>1.505979237283594</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.254413735236103</v>
@@ -44066,7 +43868,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.489358976767954</v>
+        <v>1.507997171349071</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.231421333317866</v>
@@ -44155,7 +43957,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.501740233012113</v>
+        <v>1.517810985163991</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.235055306717363</v>
@@ -44244,7 +44046,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.531917543766157</v>
+        <v>1.546267817141054</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.137244980850142</v>
@@ -44333,7 +44135,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.501473990644014</v>
+        <v>1.513802233204431</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.360669622066918</v>
@@ -44422,7 +44224,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.49310022901225</v>
+        <v>1.500741633701748</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.340492618818276</v>
@@ -44511,7 +44313,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.48720930862314</v>
+        <v>1.495582907585594</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.338643276321209</v>
@@ -44600,7 +44402,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.482971608935219</v>
+        <v>1.489650322010133</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.260333495329236</v>
@@ -44689,7 +44491,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.480854810484394</v>
+        <v>1.486189534115482</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.316685292358991</v>
@@ -44778,7 +44580,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.505396204910561</v>
+        <v>1.506403183007537</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.057518350846392</v>
@@ -44867,7 +44669,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.591912115311938</v>
+        <v>1.596735563911141</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.250539099764842</v>
@@ -44956,7 +44758,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.593987278679125</v>
+        <v>1.60503365502849</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.422477912500037</v>
@@ -45045,7 +44847,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.549537234084476</v>
+        <v>1.568377234571128</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.333732380372831</v>
@@ -45134,7 +44936,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.524283404708514</v>
+        <v>1.53632771150297</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.35898651696598</v>
@@ -45223,7 +45025,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.538909763592306</v>
+        <v>1.553512066531625</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.396748286048308</v>
@@ -45312,7 +45114,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.492828702223138</v>
+        <v>1.507790466064256</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.298717144204111</v>
@@ -45401,7 +45203,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.511638412192008</v>
+        <v>1.525792329972588</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.409223795775767</v>
@@ -45490,7 +45292,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.519494530154924</v>
+        <v>1.533175209186695</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.532119871544629</v>
@@ -45579,7 +45381,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.535364046387573</v>
+        <v>1.546289585546268</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.39770485282715</v>
@@ -45668,7 +45470,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.55253510480858</v>
+        <v>1.558256189116299</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.427096439307456</v>
@@ -45757,7 +45559,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.548224803670865</v>
+        <v>1.553605482136072</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.460047031238472</v>
@@ -45846,7 +45648,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.584566959124814</v>
+        <v>1.585353003086017</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.558395121478866</v>
@@ -45935,7 +45737,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.585228852712434</v>
+        <v>1.589710622174926</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.438209343667217</v>
@@ -46024,7 +45826,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.586197418846399</v>
+        <v>1.591643211719449</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.458342896007012</v>
@@ -46113,7 +45915,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.594452632286014</v>
+        <v>1.599740672611846</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.459378934736625</v>
@@ -46202,7 +46004,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.597173647527744</v>
+        <v>1.599812196343374</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.535241019394232</v>
@@ -46291,7 +46093,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.599612817857634</v>
+        <v>1.6040459019347</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.564154814922362</v>
@@ -46380,7 +46182,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.633916490697281</v>
+        <v>1.630555663331992</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.415726293447087</v>
@@ -46469,7 +46271,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.622332651548549</v>
+        <v>1.631738289537404</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.345583641511623</v>
@@ -46558,7 +46360,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.655326039759974</v>
+        <v>1.652437104175589</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.107176095086936</v>
@@ -46647,7 +46449,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.732374202928972</v>
+        <v>1.722933726350232</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.242986528073565</v>
@@ -46736,7 +46538,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.622531545911435</v>
+        <v>1.621189296949237</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.346685626288398</v>
@@ -46825,7 +46627,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.612921228369733</v>
+        <v>1.610582400378211</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.376449873454428</v>
@@ -46914,7 +46716,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.618379861957555</v>
+        <v>1.620904306057804</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.388126612654274</v>
@@ -47003,7 +46805,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.616567810760377</v>
+        <v>1.623054334488933</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.32121735233104</v>
@@ -47092,7 +46894,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.620929413564624</v>
+        <v>1.627554176654361</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.298315815260154</v>
@@ -47181,7 +46983,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.574144269615309</v>
+        <v>1.584428651379274</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.312054376484831</v>
@@ -47270,7 +47072,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.570113279513585</v>
+        <v>1.580455584575956</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.325959804602111</v>
@@ -47359,7 +47161,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.561139372054678</v>
+        <v>1.565647172350038</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.343016442723692</v>
@@ -47448,7 +47250,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.547014321935448</v>
+        <v>1.547345196900377</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.276378429690558</v>
@@ -47537,7 +47339,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.54811503055176</v>
+        <v>1.545029725292867</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.286408171414064</v>
@@ -47626,7 +47428,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.546127953588605</v>
+        <v>1.54091406912684</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.283154756972476</v>
@@ -47715,7 +47517,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.547343375671003</v>
+        <v>1.539989990747335</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.414958496207738</v>
@@ -47804,7 +47606,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.595013945155423</v>
+        <v>1.581151589466303</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.337636226539275</v>
@@ -47893,7 +47695,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.590643808169745</v>
+        <v>1.578879969487723</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.255599133890927</v>
@@ -47982,7 +47784,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.59914035899256</v>
+        <v>1.58595083043878</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.327619441780266</v>
@@ -48071,7 +47873,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.716830039386784</v>
+        <v>1.688797227920963</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.430772451922857</v>
@@ -48160,7 +47962,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.707878462100288</v>
+        <v>1.684017499915311</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.22437691891211</v>
@@ -48249,7 +48051,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.708537382716477</v>
+        <v>1.682869580294855</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.263393126072481</v>
@@ -48338,7 +48140,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.698140587351564</v>
+        <v>1.661886731181374</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.344288361527244</v>
@@ -48427,7 +48229,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.650496612626279</v>
+        <v>1.638924105928282</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.442212887866698</v>
@@ -48516,7 +48318,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.71412272839608</v>
+        <v>1.693126977409966</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.456945862907668</v>
@@ -48605,7 +48407,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.715563332895855</v>
+        <v>1.69538688178499</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.391514385678144</v>
@@ -48694,7 +48496,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.716484670357884</v>
+        <v>1.70148183078052</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.324319994462492</v>
@@ -48783,7 +48585,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.731915163654903</v>
+        <v>1.72042965262873</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.347223412189785</v>
@@ -48872,7 +48674,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.740428541317219</v>
+        <v>1.737590360636741</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.375991368563355</v>
@@ -48961,7 +48763,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.741634780924938</v>
+        <v>1.741123567195221</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.361893227374513</v>
@@ -49050,7 +48852,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.751153142559083</v>
+        <v>1.756579029193115</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.309229720973681</v>
@@ -49139,7 +48941,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.69363996852016</v>
+        <v>1.709038200889354</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.372779315011596</v>
@@ -49228,7 +49030,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.694136911442766</v>
+        <v>1.717454912039549</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.350378509611159</v>
@@ -49317,7 +49119,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.703769808271108</v>
+        <v>1.72595584398121</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.427377046480249</v>
@@ -49406,7 +49208,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.702224611263139</v>
+        <v>1.72491717105748</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.376994375749683</v>
@@ -49495,7 +49297,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.707867229965841</v>
+        <v>1.730981973510044</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.453716684410032</v>
@@ -49584,7 +49386,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.713141714811504</v>
+        <v>1.734415131932014</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.589360797140483</v>
@@ -49673,7 +49475,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.757360857660866</v>
+        <v>1.769329947863465</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.318524321121343</v>
@@ -49762,7 +49564,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.720857877348711</v>
+        <v>1.738575928378474</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.442722250233589</v>
@@ -49851,7 +49653,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.711853945699269</v>
+        <v>1.730854426401602</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.482257677494112</v>
@@ -49940,7 +49742,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.729680655851218</v>
+        <v>1.748401082306506</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.42239075898642</v>
@@ -50029,7 +49831,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.734593167435333</v>
+        <v>1.752780101738133</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.491018733201236</v>
@@ -50118,7 +49920,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.731052205377541</v>
+        <v>1.752130813522127</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.56213260573172</v>
@@ -50207,7 +50009,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.705603031616644</v>
+        <v>1.719061389754733</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.515077336285117</v>
